--- a/output/fit_clients/fit_round_415.xlsx
+++ b/output/fit_clients/fit_round_415.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2204565483.610589</v>
+        <v>2477629405.544938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07783179957539407</v>
+        <v>0.1015818168575511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02946876524308711</v>
+        <v>0.0413579261705908</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1102282764.953329</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2486237548.747334</v>
+        <v>1716787955.537752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1650250694588896</v>
+        <v>0.1807017418532445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0307151007120645</v>
+        <v>0.03048790834854494</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1243118889.756344</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5195701816.069552</v>
+        <v>4871593723.47813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1385783327259494</v>
+        <v>0.112284072695664</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02380289692901326</v>
+        <v>0.03330883795450625</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>149</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2597851006.931038</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3767660057.0438</v>
+        <v>4087061782.606063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1104689688720865</v>
+        <v>0.1017590136557488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03322584058567127</v>
+        <v>0.03538871476175796</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1883830047.624693</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2835422302.729391</v>
+        <v>1759534006.502728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145896436881103</v>
+        <v>0.1456695578603529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04244646202249432</v>
+        <v>0.04469746035092968</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1417711090.564142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3012987652.012151</v>
+        <v>2234253309.261375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06673103271237053</v>
+        <v>0.08333392433143523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04372096270973184</v>
+        <v>0.03978937702752245</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>130</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1506493789.721302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2919237577.229784</v>
+        <v>2496959563.53682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1884522649914398</v>
+        <v>0.1721702753171859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0329067511457705</v>
+        <v>0.02745337780315423</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>132</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1459618837.8892</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1881754980.01196</v>
+        <v>1630837948.914592</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1359501640073121</v>
+        <v>0.1724576342597766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03372351765478481</v>
+        <v>0.02279154245511518</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>940877533.0412691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4126827767.084309</v>
+        <v>5550478229.485666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2096269079482125</v>
+        <v>0.1908800523766196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03496091576738711</v>
+        <v>0.03813852179761067</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>174</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2063413915.265463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4045990465.278267</v>
+        <v>3748231642.729921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1240965581601647</v>
+        <v>0.1641744024598547</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04619032121356339</v>
+        <v>0.0403936245625257</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>171</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2022995248.508174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3035072241.982213</v>
+        <v>3121067507.309451</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1758727771968707</v>
+        <v>0.1413774896796185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03752997296622686</v>
+        <v>0.03876438451622478</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>140</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1517536142.233058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5149785302.910402</v>
+        <v>3936325921.274043</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0878450656199764</v>
+        <v>0.0744716849169722</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02074174358638396</v>
+        <v>0.0300679007742249</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>139</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2574892648.000395</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2768291536.014206</v>
+        <v>3610320281.372588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1751565637333146</v>
+        <v>0.1411352634681637</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03997837915408074</v>
+        <v>0.02781345918292357</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1384145819.24161</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636104536.764096</v>
+        <v>1822346188.720211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06782428028550345</v>
+        <v>0.0806322688934303</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03565317996880112</v>
+        <v>0.04507542046611551</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>818052384.7552549</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2323741868.119778</v>
+        <v>2556502082.766832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07202018696517933</v>
+        <v>0.08400085741815423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03960646008039709</v>
+        <v>0.03938849577361059</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1161870980.636496</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5041479870.394845</v>
+        <v>3753889257.884877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1485329348720772</v>
+        <v>0.1568451839295114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04769206785961182</v>
+        <v>0.03358510012951067</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2520739918.29121</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3593577364.499386</v>
+        <v>2453312197.54733</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1390130106431914</v>
+        <v>0.1403343793274948</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02304875719488769</v>
+        <v>0.03096282863414303</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>136</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1796788669.506606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1224702556.387884</v>
+        <v>978647335.1657623</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1599965908615049</v>
+        <v>0.1827182560028569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02073180441940542</v>
+        <v>0.02281098671675811</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>612351362.1213416</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1984761627.497819</v>
+        <v>1787030543.104501</v>
       </c>
       <c r="F20" t="n">
-        <v>0.139322329827768</v>
+        <v>0.1162209463672571</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02140252930433411</v>
+        <v>0.03141102545287507</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>992380841.7450466</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2457102982.194645</v>
+        <v>2575171288.774932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0885057662187741</v>
+        <v>0.1001195641515504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0405917473975602</v>
+        <v>0.0368823189372099</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1228551483.342186</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3827934723.505975</v>
+        <v>3068824325.674738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1106919665157975</v>
+        <v>0.1240906575826907</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04657415658536136</v>
+        <v>0.0408778657826555</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1913967373.724311</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1150224288.977515</v>
+        <v>1363054888.65454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1410713164827067</v>
+        <v>0.154682962360518</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03552930104204232</v>
+        <v>0.04059494143209137</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>575112189.3670712</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3410155951.84982</v>
+        <v>3221478909.103705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1365007745645371</v>
+        <v>0.1055313603803024</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03005372232586809</v>
+        <v>0.02835564224597328</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1705077983.601222</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1278071275.813169</v>
+        <v>1319117823.424961</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1115744785319198</v>
+        <v>0.08924234738487598</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02769800057723101</v>
+        <v>0.02989551797071988</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>639035637.9259627</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1430469700.446428</v>
+        <v>1161434827.608878</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1248697790248366</v>
+        <v>0.07745610278910632</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02688627987081655</v>
+        <v>0.03196133372488686</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>715234927.6862441</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2877767635.597828</v>
+        <v>2966425248.400785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1566339342565468</v>
+        <v>0.1120269290848645</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02298871463866049</v>
+        <v>0.02542355670428852</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1438883883.709628</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3800277780.690303</v>
+        <v>2541842135.990562</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1302403862695268</v>
+        <v>0.1134471746438176</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04318274151085155</v>
+        <v>0.04687400156122967</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1900138971.058448</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4394899834.485916</v>
+        <v>5332301403.66574</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1493331798312843</v>
+        <v>0.09585871378988899</v>
       </c>
       <c r="G29" t="n">
-        <v>0.037773687946528</v>
+        <v>0.04356078895161487</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>183</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2197449906.748981</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1727847951.852631</v>
+        <v>1747829046.546798</v>
       </c>
       <c r="F30" t="n">
-        <v>0.121613538443339</v>
+        <v>0.134025304528908</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02724157216180268</v>
+        <v>0.03431958538765447</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>863923982.3899577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1155452281.736019</v>
+        <v>1465904163.641875</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1067805138446017</v>
+        <v>0.112337112244238</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04669381383582893</v>
+        <v>0.04803190662747973</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>577726102.8399676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1453749914.724998</v>
+        <v>1817504516.523779</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08357283713258278</v>
+        <v>0.1006361036085987</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02349028299840067</v>
+        <v>0.02639498994681814</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>726875016.1604129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2821365158.650286</v>
+        <v>2698284705.306458</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1269565355543666</v>
+        <v>0.1274064354227742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04038902018292861</v>
+        <v>0.03741245067420439</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>124</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1410682590.203257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1152509045.453625</v>
+        <v>1349270025.063505</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1040163724458798</v>
+        <v>0.1136315311500751</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01961453249129542</v>
+        <v>0.02664730160183203</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>576254535.5546517</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>994982743.4118216</v>
+        <v>1019594277.708626</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1159989364162226</v>
+        <v>0.1024779271453739</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0386590573282161</v>
+        <v>0.03963670858991285</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497491391.4003678</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1971489111.588215</v>
+        <v>2225992569.362918</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1541861525130113</v>
+        <v>0.1694655520598348</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02139174173451433</v>
+        <v>0.02442601641171819</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>104</v>
-      </c>
-      <c r="J36" t="n">
-        <v>985744620.1137531</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2003318511.276285</v>
+        <v>2625208327.490295</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09605598901795519</v>
+        <v>0.06944853971747106</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0273306074056739</v>
+        <v>0.04177090302511217</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>112</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1001659283.399737</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1618265134.345047</v>
+        <v>1704832845.715436</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09660424826244354</v>
+        <v>0.1135212693652428</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03043175868930573</v>
+        <v>0.03759422186145506</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>809132599.73882</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2188267722.344251</v>
+        <v>1671710359.506294</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1188618226233024</v>
+        <v>0.1905228941540764</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02269301300446876</v>
+        <v>0.02879555142503099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1094133827.152489</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1517831506.959902</v>
+        <v>1097103256.97777</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1171776703727863</v>
+        <v>0.1188190291802127</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04507941934318179</v>
+        <v>0.05020200544270826</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>758915715.2345116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2527674798.327723</v>
+        <v>2414821393.046403</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1132086515826498</v>
+        <v>0.1169439391764019</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04025734652802707</v>
+        <v>0.02917634353581077</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1263837421.795638</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3046972850.746417</v>
+        <v>3367210067.11134</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1224784957820056</v>
+        <v>0.108824121387422</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04475104137225838</v>
+        <v>0.04077400423883967</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1523486389.049985</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2670156816.675672</v>
+        <v>1881167223.628481</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1236580326605338</v>
+        <v>0.1436627294494255</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02193616099669063</v>
+        <v>0.02225974665732961</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>144</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1335078439.912628</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1935991603.126207</v>
+        <v>1751032608.309354</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06496671852883099</v>
+        <v>0.06432191674381521</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02621842085198923</v>
+        <v>0.02272461729995762</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>967995895.1556578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1771478794.904805</v>
+        <v>1610316264.684201</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511818591079077</v>
+        <v>0.1949996832795131</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04422431411788994</v>
+        <v>0.04718534578294976</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>885739365.2880647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5282183806.418576</v>
+        <v>4634590710.48819</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1704685362478585</v>
+        <v>0.166889036570482</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04912330113211087</v>
+        <v>0.05972252672957326</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>147</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2641091946.165395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4785802411.254694</v>
+        <v>3342048608.886224</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143255409954374</v>
+        <v>0.1932258815415052</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05083382684808806</v>
+        <v>0.04431157339628256</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2392901249.28262</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4204309829.503091</v>
+        <v>2980131157.237219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097936249159355</v>
+        <v>0.1000111673971885</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02380519304437589</v>
+        <v>0.03521377311413362</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2102154937.263224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703649872.377804</v>
+        <v>1790925646.910326</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1270587914448791</v>
+        <v>0.1520373635127973</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02858524325668326</v>
+        <v>0.03213965582092747</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>851824936.5769584</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4197731445.730267</v>
+        <v>3076285973.961662</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1708100392367938</v>
+        <v>0.107283821450584</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03268763577189514</v>
+        <v>0.05107257414193412</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2098865697.504923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1540219348.244494</v>
+        <v>1117516347.825708</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1385877012708721</v>
+        <v>0.1243642878509263</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05056577212109523</v>
+        <v>0.03943593152747137</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>770109670.5562651</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4020327699.516981</v>
+        <v>4574309795.958136</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1351741334330164</v>
+        <v>0.09756693429292482</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03862190219260719</v>
+        <v>0.04263543363566072</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>170</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2010163905.05966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2310442243.627939</v>
+        <v>3336543799.080463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2028401671891711</v>
+        <v>0.1919285205068919</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02288315288813927</v>
+        <v>0.02982252522165392</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1155221201.842805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4354036344.16876</v>
+        <v>4406819202.304021</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1534436411391331</v>
+        <v>0.1475928418699436</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03330875572750794</v>
+        <v>0.03506220355307629</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2177018263.987285</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4595368914.956084</v>
+        <v>3336853648.497291</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1398462486406226</v>
+        <v>0.1445394336835625</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02057110002464684</v>
+        <v>0.0313449902073733</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2297684458.65914</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1644024268.809234</v>
+        <v>1634221184.689741</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1375558097145893</v>
+        <v>0.1353689206858096</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03555220608700917</v>
+        <v>0.03680763556091678</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>822012155.3546199</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3998541862.451955</v>
+        <v>4510663752.11001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1746485975172671</v>
+        <v>0.1290591186977957</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02179677055562195</v>
+        <v>0.01890939243009266</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>132</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1999271019.486866</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1269989935.890851</v>
+        <v>1800005946.378674</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1383935128718332</v>
+        <v>0.1587896326906656</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03054931326437751</v>
+        <v>0.0335955188197867</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>634995020.0971258</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3549173956.187128</v>
+        <v>4007279595.889474</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0801868018212375</v>
+        <v>0.09067361014590651</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04934099019049093</v>
+        <v>0.04666983782502245</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1774586975.809747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3035018448.741749</v>
+        <v>2782900416.836649</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1895515778572988</v>
+        <v>0.2027193226298166</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02731548032508298</v>
+        <v>0.0286651119245927</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1517509298.413027</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2475994977.57915</v>
+        <v>2454070081.154648</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1804099225209339</v>
+        <v>0.1411519180682361</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02645292856768142</v>
+        <v>0.02834080936005999</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>142</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1237997518.690137</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1887082385.163667</v>
+        <v>1581149344.69175</v>
       </c>
       <c r="F62" t="n">
-        <v>0.126508087533083</v>
+        <v>0.1691046792998328</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04140620765483308</v>
+        <v>0.04872546856857642</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>943541233.7441355</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5305521121.475147</v>
+        <v>4200723754.9314</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06580367150485637</v>
+        <v>0.09576371869329496</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04187768630120935</v>
+        <v>0.02931007500341654</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2652760564.884681</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4393060990.049774</v>
+        <v>5440738578.261477</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1276411145661176</v>
+        <v>0.1666620957380517</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02195274790875527</v>
+        <v>0.0274019901524753</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>129</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2196530558.550084</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3767228869.135131</v>
+        <v>4368575042.858782</v>
       </c>
       <c r="F65" t="n">
-        <v>0.171054114186804</v>
+        <v>0.1475042889795327</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03127921391336752</v>
+        <v>0.02198849964056169</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>148</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1883614467.050168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3608870335.622734</v>
+        <v>4782612077.202699</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100322217128916</v>
+        <v>0.1434029549161341</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04514805743755006</v>
+        <v>0.05098549416784606</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1804435120.438114</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2244653822.390316</v>
+        <v>3242255640.06286</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07488165020367481</v>
+        <v>0.09076608529110741</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04010765072314198</v>
+        <v>0.03267459697294401</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1122326993.396641</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3668224102.2672</v>
+        <v>5876668623.839037</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1292828534066361</v>
+        <v>0.1101577999508904</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04719759792732189</v>
+        <v>0.03247065633493938</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1834112026.829226</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1605551217.662658</v>
+        <v>2428042643.354881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1693519407944071</v>
+        <v>0.1105211335277374</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04259181363989399</v>
+        <v>0.04655003566466762</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>802775562.8282704</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2713600093.185964</v>
+        <v>3035473349.462091</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06567346349739488</v>
+        <v>0.08588908453411913</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04900476040729698</v>
+        <v>0.03027515576043286</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>118</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1356800004.970637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4541519426.227753</v>
+        <v>5139629780.968306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.180842221633291</v>
+        <v>0.116090190318127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02492799422250484</v>
+        <v>0.03207750679519096</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>151</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2270759784.583203</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1623733232.557097</v>
+        <v>2037966345.178374</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1029040674631329</v>
+        <v>0.09679372917999843</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04342814615350788</v>
+        <v>0.04788739136733275</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>811866623.2938098</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2466204572.715814</v>
+        <v>2411006017.240751</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09146124523619301</v>
+        <v>0.1046461522465396</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0317731697864835</v>
+        <v>0.04119834025689897</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>157</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1233102331.23787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2691236465.715557</v>
+        <v>2744492792.745665</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703214563893342</v>
+        <v>0.1427717021815438</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02936160072233733</v>
+        <v>0.03170172991536452</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>141</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1345618324.964992</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2106389306.743053</v>
+        <v>1915192544.006772</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1657702711123258</v>
+        <v>0.1057511271014781</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02413404579930049</v>
+        <v>0.03345552530521053</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1053194607.549486</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4070305000.30111</v>
+        <v>4576992960.51775</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1127630181796861</v>
+        <v>0.1175396732455601</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02495324262053141</v>
+        <v>0.02283869958339599</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2035152487.854969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1962345399.8922</v>
+        <v>1448637055.644696</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18329984953046</v>
+        <v>0.1691573487723133</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02656110189219197</v>
+        <v>0.02149246954801083</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>981172755.8895025</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4630552448.940329</v>
+        <v>3716759881.623987</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144619634021613</v>
+        <v>0.0921046725397669</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05325913185151406</v>
+        <v>0.03608514066837735</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>144</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2315276145.069449</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1900121989.403175</v>
+        <v>1734854284.621427</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1160317403998613</v>
+        <v>0.1408440404824954</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03929547308296114</v>
+        <v>0.03827573088778167</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>950061098.8837761</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4388655482.471333</v>
+        <v>4779483079.55348</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097748654872548</v>
+        <v>0.08949083166383036</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03784290946898126</v>
+        <v>0.02834727356023953</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>92</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2194327760.037043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4912805972.913333</v>
+        <v>4634184090.292161</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08569024300830511</v>
+        <v>0.1202033582958942</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02496544251916542</v>
+        <v>0.02146208452865613</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2456402983.555907</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4630180020.488567</v>
+        <v>3596241362.950014</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1756237788705435</v>
+        <v>0.1445721952514408</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0201989303553715</v>
+        <v>0.0240665034120597</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2315090014.85545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2005716729.453749</v>
+        <v>1719431621.836648</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1158967280536848</v>
+        <v>0.148842568900447</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950119954393707</v>
+        <v>0.02897508807097144</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1002858350.793682</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2486367779.630232</v>
+        <v>2519318873.162556</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07596041861524849</v>
+        <v>0.1192887388641772</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03231782582106255</v>
+        <v>0.03622259838714245</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1243183823.585607</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2818601364.94662</v>
+        <v>2770736571.804272</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1453027559141328</v>
+        <v>0.1627303585793037</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04720817992453897</v>
+        <v>0.0485199977346103</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>156</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1409300722.602089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2341833048.051047</v>
+        <v>2226261467.404935</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1473282147788201</v>
+        <v>0.1293472535016846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02197222306223699</v>
+        <v>0.01820716094842456</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1170916599.206079</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>976508434.9191893</v>
+        <v>1083475916.167031</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1791333263541197</v>
+        <v>0.1436660203158162</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03403282905280217</v>
+        <v>0.03880669615329833</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>488254215.7841922</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2789674110.742781</v>
+        <v>3062726420.715001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1415607221967316</v>
+        <v>0.1369455806955225</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03056336053376722</v>
+        <v>0.03349056995854219</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>164</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1394837065.038361</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2414315649.497313</v>
+        <v>2647209070.785391</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09998402235971098</v>
+        <v>0.1002818406770649</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0309405755954922</v>
+        <v>0.03044677709791062</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1207157905.800899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1400508256.657399</v>
+        <v>1510488672.448068</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1249816978390584</v>
+        <v>0.08815048615057494</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04783860744515494</v>
+        <v>0.04269802512397563</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>700254088.864915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1815439005.326727</v>
+        <v>1796342015.933698</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1509443208606372</v>
+        <v>0.1829797678709374</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04067885665756438</v>
+        <v>0.03765795014907349</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>907719499.5312054</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1851252398.382224</v>
+        <v>2053399661.936747</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06937109614719236</v>
+        <v>0.09900124258335943</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04300406519240312</v>
+        <v>0.04685274743340996</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>925626134.1891497</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4432506612.675325</v>
+        <v>4973402193.263231</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1373674294433946</v>
+        <v>0.0964551274645144</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03951784310136127</v>
+        <v>0.0354501514824787</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2216253279.020243</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2118623376.058346</v>
+        <v>1949677610.974531</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1284599032512225</v>
+        <v>0.1466078579470133</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0280739805914976</v>
+        <v>0.04283414682078182</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1059311701.806873</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2376332656.103374</v>
+        <v>2216315967.558764</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1271508771090016</v>
+        <v>0.1081353431907043</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04886893627862949</v>
+        <v>0.03762474264077486</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1188166373.142545</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1743125242.065522</v>
+        <v>1753053714.235904</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1016853366128124</v>
+        <v>0.130717975815714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03664150848220517</v>
+        <v>0.0425861442228502</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>871562635.4425385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5046153052.561557</v>
+        <v>4066197883.836834</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1635555039792057</v>
+        <v>0.1317301812272745</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02416934809948453</v>
+        <v>0.02786611863016652</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2523076666.818985</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2559656192.349773</v>
+        <v>3743156664.6308</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1091740922147869</v>
+        <v>0.0934990221325759</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02180720749385769</v>
+        <v>0.03270763415386845</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1279828051.029264</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2569004552.325482</v>
+        <v>2580664970.951432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1468734836548175</v>
+        <v>0.1200059239788822</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02254046696839445</v>
+        <v>0.02813123552416808</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1284502230.953164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2938144427.638234</v>
+        <v>4608409499.220761</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1341450546201831</v>
+        <v>0.136656729189044</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02558968215889821</v>
+        <v>0.02767094428539719</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1469072199.747025</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3617775581.877546</v>
+        <v>2619108823.696933</v>
       </c>
       <c r="F101" t="n">
-        <v>0.194615082332312</v>
+        <v>0.219617159451353</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0359749623954051</v>
+        <v>0.04891692964457869</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>167</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1808887961.638235</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_415.xlsx
+++ b/output/fit_clients/fit_round_415.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2477629405.544938</v>
+        <v>2333499432.481012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1015818168575511</v>
+        <v>0.104766662497363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0413579261705908</v>
+        <v>0.04035425186400049</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1716787955.537752</v>
+        <v>2576226633.966722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1807017418532445</v>
+        <v>0.1618384190779893</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03048790834854494</v>
+        <v>0.04451070835341622</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4871593723.47813</v>
+        <v>4688701935.8038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112284072695664</v>
+        <v>0.1551766621866864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03330883795450625</v>
+        <v>0.02962492917304516</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4087061782.606063</v>
+        <v>3634179111.504655</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1017590136557488</v>
+        <v>0.1060473488300554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03538871476175796</v>
+        <v>0.04534525200627178</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1759534006.502728</v>
+        <v>2155002260.022862</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1456695578603529</v>
+        <v>0.1441387847937217</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04469746035092968</v>
+        <v>0.03907781439840058</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2234253309.261375</v>
+        <v>2850721077.074681</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08333392433143523</v>
+        <v>0.06792501813676791</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03978937702752245</v>
+        <v>0.0418124975846189</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2496959563.53682</v>
+        <v>2792881962.554887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1721702753171859</v>
+        <v>0.1944983538457794</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02745337780315423</v>
+        <v>0.03192613453943019</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1630837948.914592</v>
+        <v>1571408586.834731</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1724576342597766</v>
+        <v>0.1200736840010268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02279154245511518</v>
+        <v>0.02416028136759292</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5550478229.485666</v>
+        <v>3654622205.16765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1908800523766196</v>
+        <v>0.2148975700819498</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03813852179761067</v>
+        <v>0.03647663727509288</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3748231642.729921</v>
+        <v>3160341362.239033</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1641744024598547</v>
+        <v>0.1830360911734617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0403936245625257</v>
+        <v>0.03906476911286864</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3121067507.309451</v>
+        <v>2238980478.085818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1413774896796185</v>
+        <v>0.1350024088505766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03876438451622478</v>
+        <v>0.03691323441037642</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3936325921.274043</v>
+        <v>4303394732.676641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0744716849169722</v>
+        <v>0.07311746140076417</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0300679007742249</v>
+        <v>0.01927834038524176</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3610320281.372588</v>
+        <v>2947503699.830078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1411352634681637</v>
+        <v>0.166316674927651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02781345918292357</v>
+        <v>0.04150137435161061</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1822346188.720211</v>
+        <v>1178401853.619424</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0806322688934303</v>
+        <v>0.0891165109103543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04507542046611551</v>
+        <v>0.04675943968505959</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2556502082.766832</v>
+        <v>2620503137.508011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08400085741815423</v>
+        <v>0.1062385296376179</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03938849577361059</v>
+        <v>0.04158575231237293</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3753889257.884877</v>
+        <v>5178246379.8819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1568451839295114</v>
+        <v>0.1493070425221493</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03358510012951067</v>
+        <v>0.03480439187743662</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2453312197.54733</v>
+        <v>3338734180.384707</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1403343793274948</v>
+        <v>0.1692848000367961</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03096282863414303</v>
+        <v>0.03223974884261478</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>978647335.1657623</v>
+        <v>1344943927.274794</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1827182560028569</v>
+        <v>0.1820797864448168</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02281098671675811</v>
+        <v>0.0204957415016297</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1787030543.104501</v>
+        <v>2806637815.206062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1162209463672571</v>
+        <v>0.09814677703752321</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03141102545287507</v>
+        <v>0.02344688750327478</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2575171288.774932</v>
+        <v>2175845600.34606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1001195641515504</v>
+        <v>0.0685430971574289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0368823189372099</v>
+        <v>0.03345031028201925</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3068824325.674738</v>
+        <v>3281730928.918403</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1240906575826907</v>
+        <v>0.1250603408288992</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0408778657826555</v>
+        <v>0.05635590503052329</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1363054888.65454</v>
+        <v>1347345389.11241</v>
       </c>
       <c r="F23" t="n">
-        <v>0.154682962360518</v>
+        <v>0.1216434599915621</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04059494143209137</v>
+        <v>0.05380240911693181</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3221478909.103705</v>
+        <v>2929173272.804106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1055313603803024</v>
+        <v>0.1387749800898169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02835564224597328</v>
+        <v>0.02323950595728356</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319117823.424961</v>
+        <v>1052011559.337862</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08924234738487598</v>
+        <v>0.08616452539180955</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02989551797071988</v>
+        <v>0.02281486632383512</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1161434827.608878</v>
+        <v>1446738092.103474</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07745610278910632</v>
+        <v>0.1184516009893037</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03196133372488686</v>
+        <v>0.02973852876810523</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2966425248.400785</v>
+        <v>3995820075.953427</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1120269290848645</v>
+        <v>0.1066215068652655</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02542355670428852</v>
+        <v>0.01854562611868482</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2541842135.990562</v>
+        <v>3036552442.037635</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1134471746438176</v>
+        <v>0.1402568765249913</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04687400156122967</v>
+        <v>0.03367670574233728</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5332301403.66574</v>
+        <v>5413240770.308725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09585871378988899</v>
+        <v>0.1317589489827431</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04356078895161487</v>
+        <v>0.03867072700887372</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747829046.546798</v>
+        <v>1659666626.027098</v>
       </c>
       <c r="F30" t="n">
-        <v>0.134025304528908</v>
+        <v>0.1196345607191993</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03431958538765447</v>
+        <v>0.0297704795599543</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1465904163.641875</v>
+        <v>1055789627.724103</v>
       </c>
       <c r="F31" t="n">
-        <v>0.112337112244238</v>
+        <v>0.1063219127363375</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04803190662747973</v>
+        <v>0.05114832687083729</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1817504516.523779</v>
+        <v>1512954790.499615</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1006361036085987</v>
+        <v>0.1016384841843311</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02639498994681814</v>
+        <v>0.03237926178127144</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2698284705.306458</v>
+        <v>2987345419.275963</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1274064354227742</v>
+        <v>0.166501628631155</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03741245067420439</v>
+        <v>0.04568261204517312</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1349270025.063505</v>
+        <v>962616357.8389758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136315311500751</v>
+        <v>0.08059217631978403</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02664730160183203</v>
+        <v>0.02116919882735231</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1019594277.708626</v>
+        <v>870709882.1505305</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024779271453739</v>
+        <v>0.08184148961652499</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03963670858991285</v>
+        <v>0.04168510877269388</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2225992569.362918</v>
+        <v>2524966010.759353</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694655520598348</v>
+        <v>0.1679838287201139</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02442601641171819</v>
+        <v>0.02889995421051923</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2625208327.490295</v>
+        <v>2356900701.348821</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06944853971747106</v>
+        <v>0.08521312742975717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04177090302511217</v>
+        <v>0.03823396699654862</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1704832845.715436</v>
+        <v>1684929625.263121</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1135212693652428</v>
+        <v>0.0754721650960542</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03759422186145506</v>
+        <v>0.02536214605510653</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1671710359.506294</v>
+        <v>2188652104.190413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1905228941540764</v>
+        <v>0.1264103576358375</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02879555142503099</v>
+        <v>0.03242136383343099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1097103256.97777</v>
+        <v>1746529885.958073</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1188190291802127</v>
+        <v>0.1625562586649136</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05020200544270826</v>
+        <v>0.03694636116584449</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2414821393.046403</v>
+        <v>1778419862.648618</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1169439391764019</v>
+        <v>0.156708792314223</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02917634353581077</v>
+        <v>0.0348331516102914</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3367210067.11134</v>
+        <v>2703585059.35147</v>
       </c>
       <c r="F42" t="n">
-        <v>0.108824121387422</v>
+        <v>0.1097588257216971</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04077400423883967</v>
+        <v>0.03738434353933361</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1881167223.628481</v>
+        <v>2946384982.961604</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1436627294494255</v>
+        <v>0.1745816765939652</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02225974665732961</v>
+        <v>0.01918482238596481</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1751032608.309354</v>
+        <v>1989700154.087517</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06432191674381521</v>
+        <v>0.09238034916475614</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02272461729995762</v>
+        <v>0.03344731149380996</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1610316264.684201</v>
+        <v>2521121085.780077</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1949996832795131</v>
+        <v>0.1933833998528071</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04718534578294976</v>
+        <v>0.03959284841490565</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4634590710.48819</v>
+        <v>3685868741.586548</v>
       </c>
       <c r="F46" t="n">
-        <v>0.166889036570482</v>
+        <v>0.1456816449588449</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05972252672957326</v>
+        <v>0.04159873159350947</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3342048608.886224</v>
+        <v>3639779428.191155</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1932258815415052</v>
+        <v>0.1675092787429183</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04431157339628256</v>
+        <v>0.03828673937929124</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2980131157.237219</v>
+        <v>4632494937.640823</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1000111673971885</v>
+        <v>0.08642029486624118</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03521377311413362</v>
+        <v>0.02437103565993353</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1790925646.910326</v>
+        <v>1249805212.88317</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1520373635127973</v>
+        <v>0.1245430244111724</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03213965582092747</v>
+        <v>0.04363417360351428</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3076285973.961662</v>
+        <v>3860541838.599217</v>
       </c>
       <c r="F50" t="n">
-        <v>0.107283821450584</v>
+        <v>0.1353686651549192</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05107257414193412</v>
+        <v>0.03387738755499492</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1117516347.825708</v>
+        <v>1360322919.071961</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1243642878509263</v>
+        <v>0.1749951027768127</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03943593152747137</v>
+        <v>0.04991061657720706</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4574309795.958136</v>
+        <v>4704901376.617806</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09756693429292482</v>
+        <v>0.0881356023472526</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04263543363566072</v>
+        <v>0.05558990274826633</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3336543799.080463</v>
+        <v>2529186085.902746</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1919285205068919</v>
+        <v>0.1693609185388956</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02982252522165392</v>
+        <v>0.0304483290602745</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4406819202.304021</v>
+        <v>3969366253.45484</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1475928418699436</v>
+        <v>0.159130042463259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03506220355307629</v>
+        <v>0.03913619090591024</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3336853648.497291</v>
+        <v>3305081396.90813</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1445394336835625</v>
+        <v>0.1957408202157144</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0313449902073733</v>
+        <v>0.03048266977895374</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1634221184.689741</v>
+        <v>1650632483.690022</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1353689206858096</v>
+        <v>0.1292887559919862</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03680763556091678</v>
+        <v>0.05324083494296837</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4510663752.11001</v>
+        <v>4567474839.918164</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1290591186977957</v>
+        <v>0.1588979725288878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01890939243009266</v>
+        <v>0.02185667949677244</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1800005946.378674</v>
+        <v>1577332954.119195</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1587896326906656</v>
+        <v>0.1275928758749507</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0335955188197867</v>
+        <v>0.03835358760478481</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4007279595.889474</v>
+        <v>5095476652.284806</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09067361014590651</v>
+        <v>0.08272538913547568</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04666983782502245</v>
+        <v>0.03323720603159218</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2782900416.836649</v>
+        <v>3710196767.371668</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2027193226298166</v>
+        <v>0.1336928576580994</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0286651119245927</v>
+        <v>0.02336496576671998</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2454070081.154648</v>
+        <v>2839987707.348549</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1411519180682361</v>
+        <v>0.1131593070122241</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02834080936005999</v>
+        <v>0.0306573750587241</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1581149344.69175</v>
+        <v>2061866205.455726</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1691046792998328</v>
+        <v>0.1454530753966905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04872546856857642</v>
+        <v>0.04588472977883904</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4200723754.9314</v>
+        <v>5403368201.839438</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09576371869329496</v>
+        <v>0.07745624557474574</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931007500341654</v>
+        <v>0.03461220086583681</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5440738578.261477</v>
+        <v>4620817274.703567</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1666620957380517</v>
+        <v>0.1569417885710728</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0274019901524753</v>
+        <v>0.03443627171663498</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4368575042.858782</v>
+        <v>3893322381.857376</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1475042889795327</v>
+        <v>0.1680010166402868</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02198849964056169</v>
+        <v>0.03080919813845328</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4782612077.202699</v>
+        <v>5575656372.828753</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434029549161341</v>
+        <v>0.1087426937438478</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05098549416784606</v>
+        <v>0.05047585657230245</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3242255640.06286</v>
+        <v>2127634297.555403</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09076608529110741</v>
+        <v>0.08128321207199969</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03267459697294401</v>
+        <v>0.03524650364955666</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5876668623.839037</v>
+        <v>4699183923.860862</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1101577999508904</v>
+        <v>0.1258754219889152</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03247065633493938</v>
+        <v>0.03687056468048751</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2428042643.354881</v>
+        <v>2188339209.830239</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1105211335277374</v>
+        <v>0.1142513149929522</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04655003566466762</v>
+        <v>0.04071407950647217</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3035473349.462091</v>
+        <v>2710047458.751399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08588908453411913</v>
+        <v>0.06685336880503022</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03027515576043286</v>
+        <v>0.04844718275899724</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5139629780.968306</v>
+        <v>4059969920.296732</v>
       </c>
       <c r="F71" t="n">
-        <v>0.116090190318127</v>
+        <v>0.1146286436220313</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03207750679519096</v>
+        <v>0.03402824242326706</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2037966345.178374</v>
+        <v>2096580826.751806</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09679372917999843</v>
+        <v>0.0829910670507784</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04788739136733275</v>
+        <v>0.04193622674108968</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2411006017.240751</v>
+        <v>3353362269.802026</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1046461522465396</v>
+        <v>0.08880046659416686</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04119834025689897</v>
+        <v>0.04936954167996566</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2744492792.745665</v>
+        <v>2724818415.203894</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1427717021815438</v>
+        <v>0.1768020235959933</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03170172991536452</v>
+        <v>0.02282058268568641</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1915192544.006772</v>
+        <v>1822212317.634902</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1057511271014781</v>
+        <v>0.1195355927598476</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03345552530521053</v>
+        <v>0.03284413945983036</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4576992960.51775</v>
+        <v>5011820617.455647</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1175396732455601</v>
+        <v>0.110002146541899</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02283869958339599</v>
+        <v>0.03197432741871688</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1448637055.644696</v>
+        <v>1841715095.529494</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1691573487723133</v>
+        <v>0.1187946867526704</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149246954801083</v>
+        <v>0.02780127214477167</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3716759881.623987</v>
+        <v>3565853051.832602</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0921046725397669</v>
+        <v>0.1042725482836511</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03608514066837735</v>
+        <v>0.05367150335485112</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1734854284.621427</v>
+        <v>1374958329.038231</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1408440404824954</v>
+        <v>0.1179701680179318</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03827573088778167</v>
+        <v>0.02764325377012122</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4779483079.55348</v>
+        <v>4656448381.643319</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08949083166383036</v>
+        <v>0.06760102756820816</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02834727356023953</v>
+        <v>0.0330147211452459</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4634184090.292161</v>
+        <v>5114093182.745885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1202033582958942</v>
+        <v>0.1234902563048278</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02146208452865613</v>
+        <v>0.02661937817441391</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3596241362.950014</v>
+        <v>3614244875.677572</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1445721952514408</v>
+        <v>0.1510246935245402</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0240665034120597</v>
+        <v>0.02302151055783654</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1719431621.836648</v>
+        <v>1910709030.181265</v>
       </c>
       <c r="F83" t="n">
-        <v>0.148842568900447</v>
+        <v>0.1244539730390119</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02897508807097144</v>
+        <v>0.03759262339364527</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2519318873.162556</v>
+        <v>2507828735.825006</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1192887388641772</v>
+        <v>0.1175153503340513</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03622259838714245</v>
+        <v>0.04093804362087213</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2770736571.804272</v>
+        <v>3040641332.734949</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1627303585793037</v>
+        <v>0.1412771452170851</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0485199977346103</v>
+        <v>0.04234598502384709</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2226261467.404935</v>
+        <v>2083904537.655329</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1293472535016846</v>
+        <v>0.1649400082438087</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01820716094842456</v>
+        <v>0.02173884123616194</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083475916.167031</v>
+        <v>1182182801.607744</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1436660203158162</v>
+        <v>0.1509122607635829</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03880669615329833</v>
+        <v>0.02866216254266677</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3062726420.715001</v>
+        <v>3006743242.005537</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1369455806955225</v>
+        <v>0.1138381086389773</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03349056995854219</v>
+        <v>0.03232448278226951</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2647209070.785391</v>
+        <v>2414321038.835693</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002818406770649</v>
+        <v>0.1009890792333277</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03044677709791062</v>
+        <v>0.03109989378830158</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1510488672.448068</v>
+        <v>2032448311.696183</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08815048615057494</v>
+        <v>0.08557001958580766</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04269802512397563</v>
+        <v>0.0473530845738962</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1796342015.933698</v>
+        <v>1906778787.927034</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1829797678709374</v>
+        <v>0.1266060898073831</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03765795014907349</v>
+        <v>0.05537807445666199</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2053399661.936747</v>
+        <v>2173650029.870851</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09900124258335943</v>
+        <v>0.08055061189364882</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04685274743340996</v>
+        <v>0.04651459794662718</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4973402193.263231</v>
+        <v>3129548081.671555</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0964551274645144</v>
+        <v>0.11312353623955</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0354501514824787</v>
+        <v>0.04116332209506733</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1949677610.974531</v>
+        <v>1733305950.427871</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1466078579470133</v>
+        <v>0.1059000369751349</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04283414682078182</v>
+        <v>0.04247206113786405</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2216315967.558764</v>
+        <v>2139672575.121463</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1081353431907043</v>
+        <v>0.1072272872343367</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03762474264077486</v>
+        <v>0.05092023264810516</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1753053714.235904</v>
+        <v>1625274900.301664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.130717975815714</v>
+        <v>0.09193426496678977</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0425861442228502</v>
+        <v>0.03405272620908837</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4066197883.836834</v>
+        <v>4650911122.39091</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317301812272745</v>
+        <v>0.1256630601289685</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02786611863016652</v>
+        <v>0.01830362830010124</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3743156664.6308</v>
+        <v>3874579076.464524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0934990221325759</v>
+        <v>0.1227787047876188</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03270763415386845</v>
+        <v>0.02743512288523527</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2580664970.951432</v>
+        <v>3441426289.384889</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200059239788822</v>
+        <v>0.1021320018778452</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02813123552416808</v>
+        <v>0.02993146386404077</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4608409499.220761</v>
+        <v>4451997268.790894</v>
       </c>
       <c r="F100" t="n">
-        <v>0.136656729189044</v>
+        <v>0.1552862339131405</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02767094428539719</v>
+        <v>0.0244798074880855</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2619108823.696933</v>
+        <v>2203685217.40236</v>
       </c>
       <c r="F101" t="n">
-        <v>0.219617159451353</v>
+        <v>0.1546457369193092</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04891692964457869</v>
+        <v>0.04083403881804087</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_415.xlsx
+++ b/output/fit_clients/fit_round_415.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2333499432.481012</v>
+        <v>2292867540.126743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104766662497363</v>
+        <v>0.1075722677548572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04035425186400049</v>
+        <v>0.03590434765342949</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2576226633.966722</v>
+        <v>2454600508.145927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1618384190779893</v>
+        <v>0.1696171777453838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04451070835341622</v>
+        <v>0.04203584576849208</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4688701935.8038</v>
+        <v>3558042272.847605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1551766621866864</v>
+        <v>0.1643446821994118</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02962492917304516</v>
+        <v>0.03346778306511061</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>210</v>
+      </c>
+      <c r="J4" t="n">
+        <v>414</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.91787858292995</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3634179111.504655</v>
+        <v>4039297765.887421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1060473488300554</v>
+        <v>0.0685900968416945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04534525200627178</v>
+        <v>0.04428119999685089</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>172</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.27532021006816</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2155002260.022862</v>
+        <v>2384555668.364934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1441387847937217</v>
+        <v>0.1254551835723478</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03907781439840058</v>
+        <v>0.05187641593862406</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2850721077.074681</v>
+        <v>2599087861.349396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06792501813676791</v>
+        <v>0.08929323046405556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0418124975846189</v>
+        <v>0.04885729085068351</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2792881962.554887</v>
+        <v>2746330058.435399</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1944983538457794</v>
+        <v>0.209440903129987</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03192613453943019</v>
+        <v>0.02761034777568276</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1571408586.834731</v>
+        <v>1938769505.110348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1200736840010268</v>
+        <v>0.1509586624062217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02416028136759292</v>
+        <v>0.03072174755682425</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3654622205.16765</v>
+        <v>3878156743.453593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2148975700819498</v>
+        <v>0.1396066566964768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03647663727509288</v>
+        <v>0.04718118994605024</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>332</v>
+      </c>
+      <c r="J10" t="n">
+        <v>415</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3160341362.239033</v>
+        <v>3372896215.977132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1830360911734617</v>
+        <v>0.1366277197564286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03906476911286864</v>
+        <v>0.04357778427939848</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2238980478.085818</v>
+        <v>2146252537.538777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1350024088505766</v>
+        <v>0.1878424257877069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03691323441037642</v>
+        <v>0.04699651026676105</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4303394732.676641</v>
+        <v>4165713492.396964</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07311746140076417</v>
+        <v>0.08075781684351076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01927834038524176</v>
+        <v>0.02808192215763851</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>216</v>
+      </c>
+      <c r="J13" t="n">
+        <v>415</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2947503699.830078</v>
+        <v>2553705720.798313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.166316674927651</v>
+        <v>0.1475312112648073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04150137435161061</v>
+        <v>0.03715883956076166</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>414</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38.614736088813</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1178401853.619424</v>
+        <v>1203703100.592991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0891165109103543</v>
+        <v>0.09494492387682489</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04675943968505959</v>
+        <v>0.04682439826479291</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2620503137.508011</v>
+        <v>1755946834.193271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1062385296376179</v>
+        <v>0.1165112730597983</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04158575231237293</v>
+        <v>0.04963901884425193</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5178246379.8819</v>
+        <v>3515288730.896472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1493070425221493</v>
+        <v>0.1267599262548614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03480439187743662</v>
+        <v>0.04066573178154051</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>201</v>
+      </c>
+      <c r="J17" t="n">
+        <v>414</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43.21568292559989</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3338734180.384707</v>
+        <v>2613554105.426095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1692848000367961</v>
+        <v>0.163701045235553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03223974884261478</v>
+        <v>0.0273397915684725</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>107</v>
+      </c>
+      <c r="J18" t="n">
+        <v>414</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32.27901561660511</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1344943927.274794</v>
+        <v>866420750.1692998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1820797864448168</v>
+        <v>0.1918342749637006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0204957415016297</v>
+        <v>0.01980865744865259</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2806637815.206062</v>
+        <v>2544385219.559865</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09814677703752321</v>
+        <v>0.1428221116553966</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02344688750327478</v>
+        <v>0.03154690149082343</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2175845600.34606</v>
+        <v>1965223828.983177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0685430971574289</v>
+        <v>0.08239251200048631</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03345031028201925</v>
+        <v>0.03609684384740403</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3281730928.918403</v>
+        <v>2822402929.227624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1250603408288992</v>
+        <v>0.09978873532537953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05635590503052329</v>
+        <v>0.03947293611886643</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>116</v>
+      </c>
+      <c r="J22" t="n">
+        <v>414</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37.03188919156288</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1347345389.11241</v>
+        <v>1300392018.118154</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1216434599915621</v>
+        <v>0.1701098273655955</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05380240911693181</v>
+        <v>0.03625451570147004</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2929173272.804106</v>
+        <v>3469336139.241721</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1387749800898169</v>
+        <v>0.1274108212826033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02323950595728356</v>
+        <v>0.03400284211024832</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>130</v>
+      </c>
+      <c r="J24" t="n">
+        <v>415</v>
+      </c>
+      <c r="K24" t="n">
+        <v>49.93506804408173</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1052011559.337862</v>
+        <v>1242452703.613865</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08616452539180955</v>
+        <v>0.08433692737908922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02281486632383512</v>
+        <v>0.02883106757537301</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1446738092.103474</v>
+        <v>1278288677.011998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1184516009893037</v>
+        <v>0.1135073676837215</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02973852876810523</v>
+        <v>0.03825651462016223</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3995820075.953427</v>
+        <v>3705489050.064111</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1066215068652655</v>
+        <v>0.1370268896014071</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01854562611868482</v>
+        <v>0.02368085118593514</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>175</v>
+      </c>
+      <c r="J27" t="n">
+        <v>415</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3036552442.037635</v>
+        <v>3739104390.099917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1402568765249913</v>
+        <v>0.1412582202238452</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03367670574233728</v>
+        <v>0.03316972753359685</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>102</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5413240770.308725</v>
+        <v>4413874066.20479</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1317589489827431</v>
+        <v>0.1388032781470831</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03867072700887372</v>
+        <v>0.03744122815607508</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>347</v>
+      </c>
+      <c r="J29" t="n">
+        <v>415</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1659666626.027098</v>
+        <v>1962706962.47037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1196345607191993</v>
+        <v>0.1055612228878049</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0297704795599543</v>
+        <v>0.02605224641521026</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1055789627.724103</v>
+        <v>1439428911.856314</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1063219127363375</v>
+        <v>0.09382159323570032</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05114832687083729</v>
+        <v>0.05097004014166002</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1512954790.499615</v>
+        <v>1672628313.978703</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1016384841843311</v>
+        <v>0.08778731238940103</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03237926178127144</v>
+        <v>0.03824677736062124</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2987345419.275963</v>
+        <v>2962211508.750855</v>
       </c>
       <c r="F33" t="n">
-        <v>0.166501628631155</v>
+        <v>0.1259710410916384</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04568261204517312</v>
+        <v>0.03810502732129543</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>962616357.8389758</v>
+        <v>1199137726.229768</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08059217631978403</v>
+        <v>0.1015411657518021</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116919882735231</v>
+        <v>0.01911357581884393</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>870709882.1505305</v>
+        <v>1343337718.549705</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08184148961652499</v>
+        <v>0.09540427635000738</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04168510877269388</v>
+        <v>0.03411715503234868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2524966010.759353</v>
+        <v>2346384266.071525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1679838287201139</v>
+        <v>0.1252368635723607</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02889995421051923</v>
+        <v>0.02112522040099147</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2356900701.348821</v>
+        <v>2222250690.772171</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08521312742975717</v>
+        <v>0.09537224963926379</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03823396699654862</v>
+        <v>0.03378434421092579</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684929625.263121</v>
+        <v>1325315036.66782</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0754721650960542</v>
+        <v>0.09269342092126613</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02536214605510653</v>
+        <v>0.02856876330671282</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2188652104.190413</v>
+        <v>1529766928.038695</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1264103576358375</v>
+        <v>0.1462592129712104</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03242136383343099</v>
+        <v>0.0314021326734148</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1746529885.958073</v>
+        <v>1739251169.90931</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625562586649136</v>
+        <v>0.106220237750531</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03694636116584449</v>
+        <v>0.03674898552074028</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1778419862.648618</v>
+        <v>2050340925.892279</v>
       </c>
       <c r="F41" t="n">
-        <v>0.156708792314223</v>
+        <v>0.1562703349882004</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0348331516102914</v>
+        <v>0.03521186153689539</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2703585059.35147</v>
+        <v>3873597077.870305</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1097588257216971</v>
+        <v>0.08740138655647969</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03738434353933361</v>
+        <v>0.0336792001398693</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>415</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2946384982.961604</v>
+        <v>1857865562.987716</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1745816765939652</v>
+        <v>0.1462109811170427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01918482238596481</v>
+        <v>0.01602562972609744</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1989700154.087517</v>
+        <v>2118664136.914834</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09238034916475614</v>
+        <v>0.09710626874149003</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03344731149380996</v>
+        <v>0.03345785060717438</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2521121085.780077</v>
+        <v>1741377251.638835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1933833998528071</v>
+        <v>0.1633570391090765</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03959284841490565</v>
+        <v>0.05083287998468376</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3685868741.586548</v>
+        <v>4715779474.134436</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1456816449588449</v>
+        <v>0.1243556145598418</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04159873159350947</v>
+        <v>0.05157151559592041</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>249</v>
+      </c>
+      <c r="J46" t="n">
+        <v>414</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.12064956298551</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3639779428.191155</v>
+        <v>3646817032.83704</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1675092787429183</v>
+        <v>0.1997643860469396</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03828673937929124</v>
+        <v>0.04198343079402028</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>186</v>
+      </c>
+      <c r="J47" t="n">
+        <v>413</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4632494937.640823</v>
+        <v>4103440353.316352</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08642029486624118</v>
+        <v>0.06997654064331918</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02437103565993353</v>
+        <v>0.03127132457461758</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>213</v>
+      </c>
+      <c r="J48" t="n">
+        <v>415</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1249805212.88317</v>
+        <v>1515517380.098487</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1245430244111724</v>
+        <v>0.1285378065279149</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04363417360351428</v>
+        <v>0.04461851383021551</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3860541838.599217</v>
+        <v>3442006054.886764</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1353686651549192</v>
+        <v>0.1078900531261211</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03387738755499492</v>
+        <v>0.04320010485640998</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>143</v>
+      </c>
+      <c r="J50" t="n">
+        <v>413</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1360322919.071961</v>
+        <v>1099524357.020421</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1749951027768127</v>
+        <v>0.1259982756821342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04991061657720706</v>
+        <v>0.03862854433696229</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4704901376.617806</v>
+        <v>4657422317.352264</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0881356023472526</v>
+        <v>0.1321811271448073</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05558990274826633</v>
+        <v>0.05540698149588508</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>240</v>
+      </c>
+      <c r="J52" t="n">
+        <v>414</v>
+      </c>
+      <c r="K52" t="n">
+        <v>42.99316258443602</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2529186085.902746</v>
+        <v>2622887503.266885</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1693609185388956</v>
+        <v>0.1953969271871712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0304483290602745</v>
+        <v>0.02452424612467048</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60</v>
+      </c>
+      <c r="J53" t="n">
+        <v>414</v>
+      </c>
+      <c r="K53" t="n">
+        <v>38.20144704728545</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3969366253.45484</v>
+        <v>4935816413.217616</v>
       </c>
       <c r="F54" t="n">
-        <v>0.159130042463259</v>
+        <v>0.1300430710047072</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03913619090591024</v>
+        <v>0.04432104211089152</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>221</v>
+      </c>
+      <c r="J54" t="n">
+        <v>415</v>
+      </c>
+      <c r="K54" t="n">
+        <v>43.23540445354196</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3305081396.90813</v>
+        <v>3176584163.999235</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1957408202157144</v>
+        <v>0.1676480204989468</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03048266977895374</v>
+        <v>0.02268892002626666</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>205</v>
+      </c>
+      <c r="J55" t="n">
+        <v>414</v>
+      </c>
+      <c r="K55" t="n">
+        <v>37.12485005708425</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650632483.690022</v>
+        <v>1513294876.941637</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1292887559919862</v>
+        <v>0.1398874993550607</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05324083494296837</v>
+        <v>0.05746466207824957</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4567474839.918164</v>
+        <v>3143811126.88756</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1588979725288878</v>
+        <v>0.1814069792528372</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02185667949677244</v>
+        <v>0.02642153063637152</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>180</v>
+      </c>
+      <c r="J57" t="n">
+        <v>414</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.47945408650101</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1577332954.119195</v>
+        <v>1769112903.506737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1275928758749507</v>
+        <v>0.1731406297548407</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03835358760478481</v>
+        <v>0.03026923303072842</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5095476652.284806</v>
+        <v>4740488611.316612</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08272538913547568</v>
+        <v>0.1222108979493451</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03323720603159218</v>
+        <v>0.03744618408062</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>203</v>
+      </c>
+      <c r="J59" t="n">
+        <v>414</v>
+      </c>
+      <c r="K59" t="n">
+        <v>42.51166992877962</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2553,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3710196767.371668</v>
+        <v>2778330687.944917</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1336928576580994</v>
+        <v>0.1343919988394419</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02336496576671998</v>
+        <v>0.02757886180710364</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>77</v>
+      </c>
+      <c r="J60" t="n">
+        <v>415</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46.77454727932767</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2596,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2839987707.348549</v>
+        <v>2553872837.589272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1131593070122241</v>
+        <v>0.1111016159319431</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0306573750587241</v>
+        <v>0.02274637838075215</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2061866205.455726</v>
+        <v>1474063500.739583</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1454530753966905</v>
+        <v>0.1456184675703276</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04588472977883904</v>
+        <v>0.04858216918342156</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2666,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5403368201.839438</v>
+        <v>3560869672.639726</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07745624557474574</v>
+        <v>0.09250605556942514</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03461220086583681</v>
+        <v>0.04172597292150235</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>207</v>
+      </c>
+      <c r="J63" t="n">
+        <v>413</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4620817274.703567</v>
+        <v>3796602276.986095</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1569417885710728</v>
+        <v>0.1288163122256606</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03443627171663498</v>
+        <v>0.02212511854966556</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>208</v>
+      </c>
+      <c r="J64" t="n">
+        <v>414</v>
+      </c>
+      <c r="K64" t="n">
+        <v>42.56617262601664</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2738,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3893322381.857376</v>
+        <v>4884099094.085649</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1680010166402868</v>
+        <v>0.1622408196070709</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03080919813845328</v>
+        <v>0.03094281986526295</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>304</v>
+      </c>
+      <c r="J65" t="n">
+        <v>415</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5575656372.828753</v>
+        <v>3848483457.172526</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1087426937438478</v>
+        <v>0.1030513463761078</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05047585657230245</v>
+        <v>0.04633621193968546</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>204</v>
+      </c>
+      <c r="J66" t="n">
+        <v>415</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2127634297.555403</v>
+        <v>3075732162.115119</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08128321207199969</v>
+        <v>0.09301993082851123</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03524650364955666</v>
+        <v>0.03621363383730614</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4699183923.860862</v>
+        <v>4634161985.237761</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1258754219889152</v>
+        <v>0.1070530893839163</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03687056468048751</v>
+        <v>0.03485382810357012</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>226</v>
+      </c>
+      <c r="J68" t="n">
+        <v>415</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2188339209.830239</v>
+        <v>1926059179.52118</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1142513149929522</v>
+        <v>0.1366523335149603</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04071407950647217</v>
+        <v>0.03943294581828685</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2710047458.751399</v>
+        <v>2333781223.753713</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06685336880503022</v>
+        <v>0.07651959557499512</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04844718275899724</v>
+        <v>0.03390167361778677</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4059969920.296732</v>
+        <v>4070417396.343844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1146286436220313</v>
+        <v>0.1487549080097378</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402824242326706</v>
+        <v>0.0312543059064627</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>291</v>
+      </c>
+      <c r="J71" t="n">
+        <v>415</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2096580826.751806</v>
+        <v>1587839939.426396</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0829910670507784</v>
+        <v>0.07774967924869973</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04193622674108968</v>
+        <v>0.03284643885710154</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3353362269.802026</v>
+        <v>2162676474.1417</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08880046659416686</v>
+        <v>0.09273326167238295</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04936954167996566</v>
+        <v>0.03338819745672995</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2724818415.203894</v>
+        <v>3053693593.322041</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1768020235959933</v>
+        <v>0.1259489065611455</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02282058268568641</v>
+        <v>0.02877103247981102</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>117</v>
+      </c>
+      <c r="J74" t="n">
+        <v>411</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1822212317.634902</v>
+        <v>2280199106.725696</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1195355927598476</v>
+        <v>0.1158806580220667</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03284413945983036</v>
+        <v>0.02616079780366592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5011820617.455647</v>
+        <v>4039612912.297496</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110002146541899</v>
+        <v>0.1002246647373559</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03197432741871688</v>
+        <v>0.02719412735227391</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>197</v>
+      </c>
+      <c r="J76" t="n">
+        <v>414</v>
+      </c>
+      <c r="K76" t="n">
+        <v>42.6727735027845</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1841715095.529494</v>
+        <v>1460857201.811789</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1187946867526704</v>
+        <v>0.1358353394988362</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02780127214477167</v>
+        <v>0.02973917228105325</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3565853051.832602</v>
+        <v>4214594398.24221</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1042725482836511</v>
+        <v>0.1097765334516135</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05367150335485112</v>
+        <v>0.03992119247339351</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>207</v>
+      </c>
+      <c r="J78" t="n">
+        <v>415</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1374958329.038231</v>
+        <v>1540239105.55406</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1179701680179318</v>
+        <v>0.1239888626444529</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02764325377012122</v>
+        <v>0.02477055214642442</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4656448381.643319</v>
+        <v>3741339578.046798</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06760102756820816</v>
+        <v>0.08641060991063301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0330147211452459</v>
+        <v>0.03078301773192507</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>202</v>
+      </c>
+      <c r="J80" t="n">
+        <v>415</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5114093182.745885</v>
+        <v>4165668698.194401</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1234902563048278</v>
+        <v>0.1209199838463915</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02661937817441391</v>
+        <v>0.02634806578001919</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>192</v>
+      </c>
+      <c r="J81" t="n">
+        <v>415</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3614244875.677572</v>
+        <v>5194781921.46136</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1510246935245402</v>
+        <v>0.1368363177672988</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02302151055783654</v>
+        <v>0.02202827781823269</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>282</v>
+      </c>
+      <c r="J82" t="n">
+        <v>414</v>
+      </c>
+      <c r="K82" t="n">
+        <v>42.78726933786179</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1910709030.181265</v>
+        <v>1809798394.144498</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1244539730390119</v>
+        <v>0.1353095937366922</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03759262339364527</v>
+        <v>0.02795164294409233</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2507828735.825006</v>
+        <v>2584955803.090029</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175153503340513</v>
+        <v>0.08594901234694642</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04093804362087213</v>
+        <v>0.04012754581294475</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3040641332.734949</v>
+        <v>2946038534.721338</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1412771452170851</v>
+        <v>0.138973623415532</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04234598502384709</v>
+        <v>0.04361026046392944</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2083904537.655329</v>
+        <v>2117042393.262227</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1649400082438087</v>
+        <v>0.1117987711780732</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02173884123616194</v>
+        <v>0.01702765471200125</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1182182801.607744</v>
+        <v>1349524536.823835</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1509122607635829</v>
+        <v>0.1707967247161196</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02866216254266677</v>
+        <v>0.03024843365356354</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3006743242.005537</v>
+        <v>3206222316.23266</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1138381086389773</v>
+        <v>0.1525783051531936</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03232448278226951</v>
+        <v>0.03018248330458236</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2414321038.835693</v>
+        <v>2562452969.407295</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1009890792333277</v>
+        <v>0.1595766338717823</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03109989378830158</v>
+        <v>0.03434147733541421</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2032448311.696183</v>
+        <v>2170331148.749024</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08557001958580766</v>
+        <v>0.1099212371445087</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0473530845738962</v>
+        <v>0.04820379293773788</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1906778787.927034</v>
+        <v>1508280980.511414</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1266060898073831</v>
+        <v>0.1271165642450581</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05537807445666199</v>
+        <v>0.04674279300464243</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2173650029.870851</v>
+        <v>2749937695.190845</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08055061189364882</v>
+        <v>0.100462300067269</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04651459794662718</v>
+        <v>0.04603446242655244</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3129548081.671555</v>
+        <v>3457813138.057875</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11312353623955</v>
+        <v>0.1193716392686753</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04116332209506733</v>
+        <v>0.05447621262286016</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>198</v>
+      </c>
+      <c r="J93" t="n">
+        <v>415</v>
+      </c>
+      <c r="K93" t="n">
+        <v>44.43469857934793</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1733305950.427871</v>
+        <v>1659934648.939758</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1059000369751349</v>
+        <v>0.1166630981335183</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04247206113786405</v>
+        <v>0.03867830253511387</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2139672575.121463</v>
+        <v>3099510880.382987</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1072272872343367</v>
+        <v>0.1244043961906541</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05092023264810516</v>
+        <v>0.04312207738736461</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1625274900.301664</v>
+        <v>2334807064.432541</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09193426496678977</v>
+        <v>0.09738726751620062</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03405272620908837</v>
+        <v>0.02922352567822202</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4650911122.39091</v>
+        <v>3641133021.935303</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1256630601289685</v>
+        <v>0.1497675026139499</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01830362830010124</v>
+        <v>0.02071741491488941</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>217</v>
+      </c>
+      <c r="J97" t="n">
+        <v>413</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3874579076.464524</v>
+        <v>2695144052.944397</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1227787047876188</v>
+        <v>0.08247666242098077</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02743512288523527</v>
+        <v>0.02638982714631706</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>107</v>
+      </c>
+      <c r="J98" t="n">
+        <v>414</v>
+      </c>
+      <c r="K98" t="n">
+        <v>33.75556392331177</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3441426289.384889</v>
+        <v>2980712081.680125</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1021320018778452</v>
+        <v>0.1358112366642411</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02993146386404077</v>
+        <v>0.03062302138872195</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4451997268.790894</v>
+        <v>4369314933.621634</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1552862339131405</v>
+        <v>0.130908861758331</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0244798074880855</v>
+        <v>0.02151036363525637</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>193</v>
+      </c>
+      <c r="J100" t="n">
+        <v>415</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2203685217.40236</v>
+        <v>2624027961.891189</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1546457369193092</v>
+        <v>0.1649236024484292</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04083403881804087</v>
+        <v>0.04075707461618578</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
